--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P03_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P03_trail7 Features.xlsx
@@ -4434,7 +4434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4445,29 +4445,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4488,115 +4486,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4613,72 +4601,66 @@
         <v>9.918454809301087e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.2745760604271533</v>
+        <v>6.383611687548697e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.726850704538993</v>
+        <v>2.676551552830674e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>6.383611687548697e-07</v>
+        <v>0.1006793633146965</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.676551552830674e-06</v>
+        <v>0.3800165561704308</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.1006793633146965</v>
+        <v>0.1542595164658838</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3800165561704308</v>
+        <v>1.549964383367233</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1542595164658838</v>
+        <v>1.421952797680491</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.467630311318921</v>
+        <v>4.091072728722333</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.421952797680491</v>
+        <v>1.357724300449519e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.091072728722333</v>
+        <v>16089863.08746978</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.357724300449519e-14</v>
+        <v>5.99471665090915e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>16089863.08746978</v>
+        <v>3.514926825695331</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5.99471665090915e-06</v>
+        <v>0.000120669862052526</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>3.514926825695331</v>
+        <v>8.51465165816515</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.000120669862052526</v>
+        <v>1.259133016357597</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.51465165816515</v>
+        <v>0.00874847966830916</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.259133016357597</v>
+        <v>3.089408854276711</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.00874847966830916</v>
+        <v>0.9391356897542604</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.089408854276711</v>
+        <v>1.895541436963212</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9391356897542604</v>
+        <v>9</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.895541436963212</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1973263886109312</v>
       </c>
     </row>
@@ -4693,72 +4675,66 @@
         <v>8.95129069038617e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.4937429400384276</v>
+        <v>4.547154582882665e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.493223420623039</v>
+        <v>2.684787997989577e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.547154582882665e-07</v>
+        <v>0.07433613523714158</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.684787997989577e-06</v>
+        <v>0.3376753987722218</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.07433613523714158</v>
+        <v>0.1193410058597485</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3376753987722218</v>
+        <v>1.547805508128547</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1193410058597485</v>
+        <v>1.411428147841491</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.464270017660736</v>
+        <v>4.080362739197901</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.411428147841491</v>
+        <v>1.364861066267806e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.080362739197901</v>
+        <v>15906058.60945321</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.364861066267806e-14</v>
+        <v>6.032886343424818e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>15906058.60945321</v>
+        <v>3.453135355558132</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.032886343424818e-06</v>
+        <v>0.0001259816950728208</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>3.453135355558132</v>
+        <v>7.398983903840251</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001259816950728208</v>
+        <v>1.458344402943526</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.398983903840251</v>
+        <v>0.006896863211412527</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.458344402943526</v>
+        <v>3.20570863590186</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.006896863211412527</v>
+        <v>0.9378640969551876</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.20570863590186</v>
+        <v>1.903491406605011</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9378640969551876</v>
+        <v>4</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.903491406605011</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1809327766350039</v>
       </c>
     </row>
@@ -4773,72 +4749,66 @@
         <v>8.68796167274294e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.6236337398807323</v>
+        <v>3.137355656711908e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.8533695268170423</v>
+        <v>2.690094073882896e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.137355656711908e-07</v>
+        <v>0.04710138901516803</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.690094073882896e-06</v>
+        <v>0.2842382462743569</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.04710138901516803</v>
+        <v>0.08288190514733121</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2842382462743569</v>
+        <v>1.542541521231564</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.08288190514733121</v>
+        <v>1.39628667606489</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.460196206559128</v>
+        <v>4.060099577575706</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.39628667606489</v>
+        <v>1.378518570812259e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.060099577575706</v>
+        <v>15668252.49673688</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.378518570812259e-14</v>
+        <v>6.10705042486056e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>15668252.49673688</v>
+        <v>3.384182259171358</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>6.10705042486056e-06</v>
+        <v>0.0001465805728057686</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>3.384182259171358</v>
+        <v>8.162506106747372</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001465805728057686</v>
+        <v>1.627296200080788</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.162506106747372</v>
+        <v>0.009766151405126175</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.627296200080788</v>
+        <v>3.145037413151038</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.009766151405126175</v>
+        <v>0.9383146129047311</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.145037413151038</v>
+        <v>1.949003473218051</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9383146129047311</v>
+        <v>4</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.949003473218051</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1626012721592243</v>
       </c>
     </row>
@@ -4853,72 +4823,66 @@
         <v>8.717500097003281e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.5588280863373256</v>
+        <v>2.990858662792151e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.9572574874211202</v>
+        <v>2.693195831091151e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.990858662792151e-07</v>
+        <v>0.02559528584420119</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.693195831091151e-06</v>
+        <v>0.240651288412435</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.02559528584420119</v>
+        <v>0.05850015701680073</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.240651288412435</v>
+        <v>1.54223122907805</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.05850015701680073</v>
+        <v>1.389625199719381</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.458457901069203</v>
+        <v>4.023596828532455</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.389625199719381</v>
+        <v>1.40364433468856e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.023596828532455</v>
+        <v>15451413.70878382</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.40364433468856e-14</v>
+        <v>6.20706669440385e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>15451413.70878382</v>
+        <v>3.351147308459329</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>6.20706669440385e-06</v>
+        <v>0.000140217825640582</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>3.351147308459329</v>
+        <v>9.882679676597144</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.000140217825640582</v>
+        <v>1.219303238180787</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.882679676597144</v>
+        <v>0.01369470451736271</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.219303238180787</v>
+        <v>3.046989230599391</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01369470451736271</v>
+        <v>0.9403869443164599</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.046989230599391</v>
+        <v>1.929374783916657</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9403869443164599</v>
+        <v>4</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.929374783916657</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1694885238385517</v>
       </c>
     </row>
@@ -4933,72 +4897,66 @@
         <v>8.80289008014172e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.5136717981945967</v>
+        <v>2.990858662792151e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.04699915592327</v>
+        <v>2.694720181948623e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.990858662792151e-07</v>
+        <v>0.0101557796687565</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.694720181948623e-06</v>
+        <v>0.2082896440491056</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.0101557796687565</v>
+        <v>0.04344147231050111</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2082896440491056</v>
+        <v>1.532927123938805</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.04344147231050111</v>
+        <v>1.376255014981424</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.448768429257479</v>
+        <v>3.952933125006998</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.376255014981424</v>
+        <v>1.454276737606434e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.952933125006998</v>
+        <v>14859217.15571441</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.454276737606434e-14</v>
+        <v>6.437861705286306e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>14859217.15571441</v>
+        <v>3.210989729840184</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>6.437861705286306e-06</v>
+        <v>0.0001297367752057348</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>3.210989729840184</v>
+        <v>10.13845643615002</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001297367752057348</v>
+        <v>1.126082251978295</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.13845643615002</v>
+        <v>0.01333542242916967</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.126082251978295</v>
+        <v>2.931598945114541</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01333542242916967</v>
+        <v>0.9395100193870111</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.931598945114541</v>
+        <v>1.865196071855248</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9395100193870111</v>
+        <v>4</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.865196071855248</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1865057825121249</v>
       </c>
     </row>
@@ -5013,72 +4971,66 @@
         <v>8.841864308693133e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.5057710549476194</v>
+        <v>2.990858662792151e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.073759146630239</v>
+        <v>2.695127763524189e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.990858662792151e-07</v>
+        <v>0.0005314242848100049</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.695127763524189e-06</v>
+        <v>0.1874128322246018</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.0005314242848100049</v>
+        <v>0.03510594825994649</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1874128322246018</v>
+        <v>1.521197683335847</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03510594825994649</v>
+        <v>1.360618408555943</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.439898168094516</v>
+        <v>3.890453666408674</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.360618408555943</v>
+        <v>1.501362266440929e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.890453666408674</v>
+        <v>14517028.3136017</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.501362266440929e-14</v>
+        <v>6.571118784881146e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>14517028.3136017</v>
+        <v>3.164032562169877</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>6.571118784881146e-06</v>
+        <v>0.000124040236390665</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>3.164032562169877</v>
+        <v>8.886235885944657</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.000124040236390665</v>
+        <v>1.19412359989866</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.886235885944657</v>
+        <v>0.009794860613522862</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.19412359989866</v>
+        <v>3.070406684719521</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.009794860613522862</v>
+        <v>0.9391300134255863</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.070406684719521</v>
+        <v>1.901905737129079</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9391300134255863</v>
+        <v>4</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.901905737129079</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1882260015016701</v>
       </c>
     </row>
@@ -5093,72 +5045,66 @@
         <v>8.8310639095923e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.5051821151251722</v>
+        <v>2.990858662792151e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.071976616448222</v>
+        <v>2.695046997544662e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.990858662792151e-07</v>
+        <v>-0.001189174707676264</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.695046997544662e-06</v>
+        <v>0.1848447528362704</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.001189174707676264</v>
+        <v>0.03416514013172089</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1848447528362704</v>
+        <v>1.51874436163717</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03416514013172089</v>
+        <v>1.379964901820983</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.432209555723637</v>
+        <v>3.922310767869591</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.379964901820983</v>
+        <v>1.47707310705047e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.922310767869591</v>
+        <v>15116321.83609841</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.47707310705047e-14</v>
+        <v>6.415990056353858e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>15116321.83609841</v>
+        <v>3.375159106980913</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>6.415990056353858e-06</v>
+        <v>0.0001270936630243539</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>3.375159106980913</v>
+        <v>7.943577955308572</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001270936630243539</v>
+        <v>1.3367119239875</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.943577955308572</v>
+        <v>0.008019664880152566</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.3367119239875</v>
+        <v>3.145442993807471</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.008019664880152566</v>
+        <v>0.9387443217419037</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.145442993807471</v>
+        <v>1.927541965131726</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9387443217419037</v>
+        <v>4</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.927541965131726</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1799093658745081</v>
       </c>
     </row>
@@ -5173,72 +5119,66 @@
         <v>8.833855032651335e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.5057713616118151</v>
+        <v>2.990858662792151e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.071142071988302</v>
+        <v>2.695061649157108e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.990858662792151e-07</v>
+        <v>0.002235186209769981</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.695061649157108e-06</v>
+        <v>0.1870999416372596</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.002235186209769981</v>
+        <v>0.03500628431053864</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1870999416372596</v>
+        <v>1.512860427522771</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.03500628431053864</v>
+        <v>1.364860822589646</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.424576052755473</v>
+        <v>3.920315628728873</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.364860822589646</v>
+        <v>1.478576922833867e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.920315628728873</v>
+        <v>15224809.74909345</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.478576922833867e-14</v>
+        <v>6.374938345169622e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>15224809.74909345</v>
+        <v>3.427264892737156</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>6.374938345169622e-06</v>
+        <v>0.000145657138030655</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>3.427264892737156</v>
+        <v>8.239792996355762</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.000145657138030655</v>
+        <v>1.473790983234649</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.239792996355762</v>
+        <v>0.009889273203709557</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.473790983234649</v>
+        <v>3.067054750302879</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.009889273203709557</v>
+        <v>0.9378961816876501</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.067054750302879</v>
+        <v>1.875141419877914</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9378961816876501</v>
+        <v>4</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.875141419877914</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1628794286096281</v>
       </c>
     </row>
@@ -5253,72 +5193,66 @@
         <v>8.913587079883966e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.520088377279728</v>
+        <v>2.994003361447266e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.053387406899213</v>
+        <v>2.695545442324968e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.994003361447266e-07</v>
+        <v>0.009034154604187173</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.695545442324968e-06</v>
+        <v>0.1890632855485288</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.009034154604187173</v>
+        <v>0.03581912440233172</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1890632855485288</v>
+        <v>1.461440159390049</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.03581912440233172</v>
+        <v>1.364793956936154</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.38056898930802</v>
+        <v>3.958613714385556</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.364793956936154</v>
+        <v>1.450105973681194e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.958613714385556</v>
+        <v>16051913.21628103</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.450105973681194e-14</v>
+        <v>5.798341688250007e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>16051913.21628103</v>
+        <v>3.736399865532665</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>5.798341688250007e-06</v>
+        <v>0.0001752082121766098</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>3.736399865532665</v>
+        <v>10.275662855691</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001752082121766098</v>
+        <v>1.260654485017091</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.275662855691</v>
+        <v>0.01850010321364009</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.260654485017091</v>
+        <v>2.792614229326901</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01850010321364009</v>
+        <v>0.9307421720728389</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.792614229326901</v>
+        <v>1.917056444128268</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9307421720728389</v>
+        <v>5</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.917056444128268</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1470860056861253</v>
       </c>
     </row>
@@ -5333,72 +5267,66 @@
         <v>9.099127069745563e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.5550230100242015</v>
+        <v>3.184389940088142e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.000155441265352</v>
+        <v>2.696655038392987e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.184389940088142e-07</v>
+        <v>0.01513775857063785</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.696655038392987e-06</v>
+        <v>0.1856150849077211</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.01513775857063785</v>
+        <v>0.03467891447635579</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1856150849077211</v>
+        <v>1.440429186360386</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.03467891447635579</v>
+        <v>1.345540490467951</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.35763074438841</v>
+        <v>3.863879774662841</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.345540490467951</v>
+        <v>1.522084564709789e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.863879774662841</v>
+        <v>15457449.99420268</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.522084564709789e-14</v>
+        <v>6.003825164084967e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>15457449.99420268</v>
+        <v>3.636758664915626</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>6.003825164084967e-06</v>
+        <v>0.0002039621924342884</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>3.636758664915626</v>
+        <v>12.41611025106539</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0002039621924342884</v>
+        <v>1.126441896952339</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>12.41611025106539</v>
+        <v>0.03144276952185575</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.126441896952339</v>
+        <v>2.591454408147275</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.03144276952185575</v>
+        <v>0.931897205775801</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.591454408147275</v>
+        <v>1.956992904139709</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.931897205775801</v>
+        <v>5</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.956992904139709</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1395836679291346</v>
       </c>
     </row>
@@ -5413,72 +5341,66 @@
         <v>9.347256779663211e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.5894313757358891</v>
+        <v>3.216021768411231e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.9604879261058872</v>
+        <v>2.698230160912108e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.216021768411231e-07</v>
+        <v>0.01868548803242287</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.698230160912108e-06</v>
+        <v>0.1784525026742266</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.01868548803242287</v>
+        <v>0.03219138423309741</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1784525026742266</v>
+        <v>1.505209256694078</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.03219138423309741</v>
+        <v>1.403230152686574</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.414559939799289</v>
+        <v>3.741515614414517</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.403230152686574</v>
+        <v>1.462716983094775e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.741515614414517</v>
+        <v>14066382.84804587</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.462716983094775e-14</v>
+        <v>7.338304307454204e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>14066382.84804587</v>
+        <v>2.894177553541701</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>7.338304307454204e-06</v>
+        <v>0.0002028117742896235</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>2.894177553541701</v>
+        <v>12.63289759841502</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0002028117742896235</v>
+        <v>1.244324284499</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>12.63289759841502</v>
+        <v>0.03236675169133654</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.244324284499</v>
+        <v>2.75821832332985</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.03236675169133654</v>
+        <v>0.9379959002140831</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.75821832332985</v>
+        <v>1.844401931411026</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9379959002140831</v>
+        <v>4</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.844401931411026</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1526835181587762</v>
       </c>
     </row>
@@ -5493,72 +5415,66 @@
         <v>9.613947724454905e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.6048697336342554</v>
+        <v>3.216021768411231e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.9738428523382927</v>
+        <v>2.700130068535139e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3.216021768411231e-07</v>
+        <v>0.02130368311212918</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.700130068535139e-06</v>
+        <v>0.1709034229948036</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.02130368311212918</v>
+        <v>0.02965865137641767</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1709034229948036</v>
+        <v>1.519169764335944</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02965865137641767</v>
+        <v>1.349672745508267</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.422296081677053</v>
+        <v>4.208529081721954</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.349672745508267</v>
+        <v>9.614479111222141e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.208529081721954</v>
+        <v>19783176.31307597</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>9.614479111222141e-15</v>
+        <v>5.194116896320918e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>19783176.31307597</v>
+        <v>3.762857772945894</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>5.194116896320918e-06</v>
+        <v>0.0001387572558641874</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>3.762857772945894</v>
+        <v>12.4456754690322</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001387572558641874</v>
+        <v>1.200458491241613</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>12.4456754690322</v>
+        <v>0.0214927826518222</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.200458491241613</v>
+        <v>3.046316672782546</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.0214927826518222</v>
+        <v>0.939220191836769</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.046316672782546</v>
+        <v>1.880216350519201</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.939220191836769</v>
+        <v>18</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.880216350519201</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1911927041487126</v>
       </c>
     </row>
@@ -5573,72 +5489,66 @@
         <v>9.881322036178969e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.5986140579870424</v>
+        <v>3.216021768411231e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.033344238976301</v>
+        <v>2.702324220598206e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3.216021768411231e-07</v>
+        <v>0.02349750332282859</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.702324220598206e-06</v>
+        <v>0.1637144281213755</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.02349750332282859</v>
+        <v>0.02735125419785715</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1637144281213755</v>
+        <v>1.533978262893181</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02735125419785715</v>
+        <v>1.455024829333962</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.437454384914623</v>
+        <v>3.979659154044692</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.455024829333962</v>
+        <v>6.853591615990341e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.979659154044692</v>
+        <v>27139493.41318842</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>6.853591615990341e-15</v>
+        <v>3.786585046240445e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>27139493.41318842</v>
+        <v>5.048027315972674</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.786585046240445e-06</v>
+        <v>0.0001093137926982795</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>5.048027315972674</v>
+        <v>9.692569998478547</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001093137926982795</v>
+        <v>1.30202719101238</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.692569998478547</v>
+        <v>0.01026958407770694</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.30202719101238</v>
+        <v>3.152535042560028</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01026958407770694</v>
+        <v>0.9414369394334323</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.152535042560028</v>
+        <v>1.878129794242007</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9414369394334323</v>
+        <v>18</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.878129794242007</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.207141784642631</v>
       </c>
     </row>
@@ -5653,72 +5563,66 @@
         <v>1.01275059416204e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.5713061742845048</v>
+        <v>3.216021768411231e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.124127546335853</v>
+        <v>2.704736812060987e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3.216021768411231e-07</v>
+        <v>0.02451393854237455</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.704736812060987e-06</v>
+        <v>0.1579416927348672</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.02451393854237455</v>
+        <v>0.0255429203699049</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1579416927348672</v>
+        <v>1.529283851093419</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.0255429203699049</v>
+        <v>1.543903750745648</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.435210362367199</v>
+        <v>4.170264096594341</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.543903750745648</v>
+        <v>6.24141211716311e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.170264096594341</v>
+        <v>29803186.57075163</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>6.24141211716311e-15</v>
+        <v>3.450212638937631e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>29803186.57075163</v>
+        <v>5.543809046499848</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.450212638937631e-06</v>
+        <v>0.0001047588479435014</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>5.543809046499848</v>
+        <v>7.274060084417874</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001047588479435014</v>
+        <v>1.305780636186032</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.274060084417874</v>
+        <v>0.00554299493614795</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.305780636186032</v>
+        <v>3.213476717248434</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.00554299493614795</v>
+        <v>0.9404056948344293</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.213476717248434</v>
+        <v>1.85973220732117</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9404056948344293</v>
+        <v>18</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.85973220732117</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2116184591623653</v>
       </c>
     </row>
@@ -5733,72 +5637,66 @@
         <v>1.033508432230553e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.5269433566967779</v>
+        <v>3.216021768411231e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.2271449401878</v>
+        <v>2.707283294920223e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3.216021768411231e-07</v>
+        <v>0.02523366492103491</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.707283294920223e-06</v>
+        <v>0.1533613208429745</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.02523366492103491</v>
+        <v>0.02415362335221787</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1533613208429745</v>
+        <v>1.531188004818563</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02415362335221787</v>
+        <v>1.566326262176078</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.435732193254071</v>
+        <v>4.212034423162691</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.566326262176078</v>
+        <v>6.11823500156509e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.212034423162691</v>
+        <v>30597238.74525902</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>6.11823500156509e-15</v>
+        <v>3.369796727322377e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>30597238.74525902</v>
+        <v>5.727836659583383</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.369796727322377e-06</v>
+        <v>0.0001072322018573133</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>5.727836659583383</v>
+        <v>6.212937501796833</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001072322018573133</v>
+        <v>1.941417304565674</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>6.212937501796833</v>
+        <v>0.00413922651618094</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.941417304565674</v>
+        <v>3.338330421042992</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.00413922651618094</v>
+        <v>0.9391032933981819</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.338330421042992</v>
+        <v>1.877313154126312</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9391032933981819</v>
+        <v>21</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.877313154126312</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.205264211214318</v>
       </c>
     </row>
@@ -5813,72 +5711,66 @@
         <v>1.050548864595688e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.4718157041578315</v>
+        <v>3.216021768411231e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.325684212584109</v>
+        <v>2.709969109926604e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.216021768411231e-07</v>
+        <v>0.02633950230395246</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.709969109926604e-06</v>
+        <v>0.1493615995012476</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.02633950230395246</v>
+        <v>0.02300089126121051</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1493615995012476</v>
+        <v>1.539095250801247</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.02300089126121051</v>
+        <v>1.520668971366184</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.44585489964036</v>
+        <v>4.172956073992424</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.520668971366184</v>
+        <v>6.233362034370271e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.172956073992424</v>
+        <v>30631015.51005569</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>6.233362034370271e-15</v>
+        <v>3.394539291710615e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>30631015.51005569</v>
+        <v>5.848508722014406</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.394539291710615e-06</v>
+        <v>0.0001129989662544067</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>5.848508722014406</v>
+        <v>8.152611951344879</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001129989662544067</v>
+        <v>1.991754366951988</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.152611951344879</v>
+        <v>0.007510485516115639</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.991754366951988</v>
+        <v>3.362993123520118</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.007510485516115639</v>
+        <v>0.9392318687721449</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.362993123520118</v>
+        <v>1.902285946045151</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9392318687721449</v>
+        <v>18</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.902285946045151</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2067657265405682</v>
       </c>
     </row>
@@ -6255,7 +6147,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.469130165870164</v>
+        <v>1.477484479737275</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.5794700895112</v>
@@ -6344,7 +6236,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.473806264699459</v>
+        <v>1.484655178708577</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.291866213297276</v>
@@ -6433,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.502533107671134</v>
+        <v>1.510026466887681</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.406723825648641</v>
@@ -6522,7 +6414,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.518547116119827</v>
+        <v>1.526049565394548</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.371874774101474</v>
@@ -6611,7 +6503,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.550132871795228</v>
+        <v>1.560107500387881</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.607225802749218</v>
@@ -6700,7 +6592,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.534038213617927</v>
+        <v>1.543494844186591</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.355583768181945</v>
@@ -6789,7 +6681,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.557026664571428</v>
+        <v>1.561485247266615</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.518287031445458</v>
@@ -6878,7 +6770,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.5233883383798</v>
+        <v>1.532086239651415</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.664693847973512</v>
@@ -6967,7 +6859,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.527995018370391</v>
+        <v>1.533471756205416</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.375906687535748</v>
@@ -7056,7 +6948,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.509521572052577</v>
+        <v>1.51888891517761</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.638046856377339</v>
@@ -7145,7 +7037,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.530955172419491</v>
+        <v>1.53969903663443</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.460159384389868</v>
@@ -7234,7 +7126,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.54318118803855</v>
+        <v>1.55041030666488</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.477177532739891</v>
@@ -7323,7 +7215,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.528533778986772</v>
+        <v>1.537560811085403</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.466639932151914</v>
@@ -7412,7 +7304,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.538694658491312</v>
+        <v>1.543440422968971</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.488425274432394</v>
@@ -7501,7 +7393,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.510176204755306</v>
+        <v>1.516427061602938</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.622459970075671</v>
@@ -7590,7 +7482,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.526536252059935</v>
+        <v>1.531921448781706</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.29188780403069</v>
@@ -7679,7 +7571,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.535243851544404</v>
+        <v>1.542901967153464</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.633303586878445</v>
@@ -7768,7 +7660,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.530436967669601</v>
+        <v>1.535493357258297</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.628034835195936</v>
@@ -7857,7 +7749,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.543427241136609</v>
+        <v>1.547132946731188</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.456510233095476</v>
@@ -7946,7 +7838,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.521661323847517</v>
+        <v>1.52321749873473</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.574578165840066</v>
@@ -8035,7 +7927,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.543267658906214</v>
+        <v>1.542607903234307</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.619238628674399</v>
@@ -8124,7 +8016,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.552882499652759</v>
+        <v>1.554375277748231</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.689068169870831</v>
@@ -8213,7 +8105,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.586592320747712</v>
+        <v>1.582131644596426</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.541852263002887</v>
@@ -8302,7 +8194,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.594560141255905</v>
+        <v>1.587735727931154</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.299623461239575</v>
@@ -8391,7 +8283,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.608973605268756</v>
+        <v>1.606719389091684</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.599786912907595</v>
@@ -8480,7 +8372,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.588853726984882</v>
+        <v>1.59207050920373</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.771055548767059</v>
@@ -8569,7 +8461,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.607487688805107</v>
+        <v>1.611548491737922</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.451218108656819</v>
@@ -8658,7 +8550,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.632362254379361</v>
+        <v>1.635522240949534</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.48845943090738</v>
@@ -8747,7 +8639,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.619497747339307</v>
+        <v>1.63131498160679</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.598795577051159</v>
@@ -8836,7 +8728,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.588663512304511</v>
+        <v>1.599455793845762</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.603420360777923</v>
@@ -8925,7 +8817,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.581301721484139</v>
+        <v>1.589256335848036</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.537071416380341</v>
@@ -9014,7 +8906,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.551642003571721</v>
+        <v>1.560334365223295</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.445359472490667</v>
@@ -9103,7 +8995,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.547702936313598</v>
+        <v>1.558205018202105</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.524760965192673</v>
@@ -9192,7 +9084,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.497282821884143</v>
+        <v>1.509442958494556</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.366714688102523</v>
@@ -9281,7 +9173,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.456974457301453</v>
+        <v>1.46349364793514</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.340136215435565</v>
@@ -9370,7 +9262,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.432584513758192</v>
+        <v>1.441365122694284</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.391793701339715</v>
@@ -9459,7 +9351,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.406452297181732</v>
+        <v>1.414942216187193</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.412710836473712</v>
@@ -9548,7 +9440,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.413730254130465</v>
+        <v>1.425339859981467</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.459436521583342</v>
@@ -9637,7 +9529,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.41386503944489</v>
+        <v>1.424698560649669</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.578425010123877</v>
@@ -9726,7 +9618,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.411385829250232</v>
+        <v>1.422076906585769</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.363918172029734</v>
@@ -9815,7 +9707,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.416050799161693</v>
+        <v>1.423105883703245</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.34997579239944</v>
@@ -9904,7 +9796,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.413851619814489</v>
+        <v>1.420578625268328</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.409591222346761</v>
@@ -9993,7 +9885,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.409121317425093</v>
+        <v>1.410532925258326</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.426578225761437</v>
@@ -10082,7 +9974,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.42451030384357</v>
+        <v>1.421001658371726</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.280069452671518</v>
@@ -10171,7 +10063,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.450385621968199</v>
+        <v>1.440985265551885</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.416630065352797</v>
@@ -10260,7 +10152,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.463458935579149</v>
+        <v>1.454891867256764</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.487925076177214</v>
@@ -10349,7 +10241,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.472429213691437</v>
+        <v>1.464680200377722</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.553355795481147</v>
@@ -10438,7 +10330,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.485375646536859</v>
+        <v>1.475887030032913</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.181966081332372</v>
@@ -10527,7 +10419,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.545859446983329</v>
+        <v>1.528752992861791</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.172371945162296</v>
@@ -10616,7 +10508,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.617642112542572</v>
+        <v>1.600953235807068</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.198114316893201</v>
@@ -10705,7 +10597,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.629066933437416</v>
+        <v>1.611959528875629</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.398525872121894</v>
@@ -10794,7 +10686,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.681438920475098</v>
+        <v>1.654309091458778</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.368903405017698</v>
@@ -10883,7 +10775,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.705404219759742</v>
+        <v>1.662704369895777</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.361600580167901</v>
@@ -10972,7 +10864,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.683202668888372</v>
+        <v>1.645111094777367</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.444239473129816</v>
@@ -11061,7 +10953,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.660800256558141</v>
+        <v>1.618588693982738</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.476441913629637</v>
@@ -11150,7 +11042,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.626561781028837</v>
+        <v>1.601688366701137</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.512724169057083</v>
@@ -11239,7 +11131,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.617838979849757</v>
+        <v>1.592493292630127</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.503855981239488</v>
@@ -11328,7 +11220,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.607062068885819</v>
+        <v>1.575381548942991</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.420477022759554</v>
@@ -11417,7 +11309,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.596839207903017</v>
+        <v>1.575375004285674</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.532614119184118</v>
@@ -11506,7 +11398,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.617295692685422</v>
+        <v>1.598062986422184</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.584718459673481</v>
@@ -11595,7 +11487,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.578365086078991</v>
+        <v>1.565147385819582</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.520138069060229</v>
@@ -11881,7 +11773,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.512265574261694</v>
+        <v>1.51585651188187</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.625434578146856</v>
@@ -11970,7 +11862,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.484106505228366</v>
+        <v>1.488030145221276</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.553020891032242</v>
@@ -12059,7 +11951,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.49049456548554</v>
+        <v>1.48645212166019</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.567395447616526</v>
@@ -12148,7 +12040,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.489276569119212</v>
+        <v>1.486878771246519</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.541178192934863</v>
@@ -12237,7 +12129,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.496538189944907</v>
+        <v>1.488914242825558</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.590547917541472</v>
@@ -12326,7 +12218,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.492974866578191</v>
+        <v>1.487731078032031</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.458406154448316</v>
@@ -12415,7 +12307,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.5130266866621</v>
+        <v>1.497062728890056</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.51268128135842</v>
@@ -12504,7 +12396,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.522036390354172</v>
+        <v>1.501305422410198</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.465551617217249</v>
@@ -12593,7 +12485,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.52526335767776</v>
+        <v>1.501287670865396</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.754228599406392</v>
@@ -12682,7 +12574,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.487338915920309</v>
+        <v>1.457654279755726</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.406584796982051</v>
@@ -12771,7 +12663,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.463042238735696</v>
+        <v>1.436826736480838</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.322787761109581</v>
@@ -12860,7 +12752,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.466348078207496</v>
+        <v>1.442125913047045</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.360202035667416</v>
@@ -12949,7 +12841,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.427663908469849</v>
+        <v>1.404464007913113</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.309921335157789</v>
@@ -13038,7 +12930,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.423792081593267</v>
+        <v>1.40043489144132</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.361981282421208</v>
@@ -13127,7 +13019,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.409188153384159</v>
+        <v>1.389208378328672</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.354707794551258</v>
@@ -13216,7 +13108,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.404831714124389</v>
+        <v>1.380258866513947</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.092695821982471</v>
@@ -13305,7 +13197,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.400796010786893</v>
+        <v>1.372226704615804</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.372191856028539</v>
@@ -13394,7 +13286,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.393214547682428</v>
+        <v>1.373622545449248</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.371737993543788</v>
@@ -13483,7 +13375,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.393072520341871</v>
+        <v>1.376911879681359</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.361496914109507</v>
@@ -13572,7 +13464,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.387562238304691</v>
+        <v>1.370983246811031</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.307574963954365</v>
@@ -13661,7 +13553,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.393466008799755</v>
+        <v>1.371140051031515</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.367886832131057</v>
@@ -13750,7 +13642,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.380895413445546</v>
+        <v>1.367453888822748</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.375326816048188</v>
@@ -13839,7 +13731,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.388543818352694</v>
+        <v>1.373869881606887</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.322772454182517</v>
@@ -13928,7 +13820,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.38949991405528</v>
+        <v>1.3720291822387</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.203223409564415</v>
@@ -14017,7 +13909,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.428691429376103</v>
+        <v>1.40884532947021</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.086698332910727</v>
@@ -14106,7 +13998,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.428841534278135</v>
+        <v>1.413855382136824</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.431945904960456</v>
@@ -14195,7 +14087,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.431568836444465</v>
+        <v>1.409454025849747</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.431572325039006</v>
@@ -14284,7 +14176,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.43428149232718</v>
+        <v>1.412016022294743</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.750002835804793</v>
@@ -14373,7 +14265,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.427099089945186</v>
+        <v>1.40327767468263</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.640690218368944</v>
@@ -14462,7 +14354,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.441507775512102</v>
+        <v>1.415667485813869</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.653414131323225</v>
@@ -14551,7 +14443,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.428553183288899</v>
+        <v>1.402498884728203</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.630180504001535</v>
@@ -14640,7 +14532,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.431250828438291</v>
+        <v>1.406339150408461</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.364620479499738</v>
@@ -14729,7 +14621,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.430105611634539</v>
+        <v>1.400148966725462</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.532238193313463</v>
@@ -14818,7 +14710,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.406807116318472</v>
+        <v>1.380519886158002</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.540677430040385</v>
@@ -14907,7 +14799,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.409255885801067</v>
+        <v>1.378182599899104</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.4340396902879</v>
@@ -14996,7 +14888,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.409767388182423</v>
+        <v>1.38833049772965</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.396058392592758</v>
@@ -15085,7 +14977,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.409576279126221</v>
+        <v>1.387414822807749</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.411730139346476</v>
@@ -15174,7 +15066,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.396412254489824</v>
+        <v>1.382726583513547</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.610168482868056</v>
@@ -15263,7 +15155,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.394335210887667</v>
+        <v>1.378150619952937</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.664993821267573</v>
@@ -15352,7 +15244,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.397140048935826</v>
+        <v>1.383260348079325</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.494434151125356</v>
@@ -15441,7 +15333,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.39079085538475</v>
+        <v>1.376305507359515</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.657035594745531</v>
@@ -15530,7 +15422,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.394811798521291</v>
+        <v>1.379467298337724</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.572129056836042</v>
@@ -15619,7 +15511,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.398071574742661</v>
+        <v>1.384163915982015</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.640775175050199</v>
@@ -15708,7 +15600,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.402658993772648</v>
+        <v>1.385941308598824</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.573860884002789</v>
@@ -15797,7 +15689,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.401995664747246</v>
+        <v>1.383723098995645</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.593159106490878</v>
@@ -15886,7 +15778,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.424080088402897</v>
+        <v>1.402223631051809</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.3024083565481</v>
@@ -15975,7 +15867,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.425293188967778</v>
+        <v>1.406058351566829</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.592411963582507</v>
@@ -16064,7 +15956,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.429452951258116</v>
+        <v>1.413743701276515</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.541970734097506</v>
@@ -16153,7 +16045,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.442222272045087</v>
+        <v>1.426901626319736</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.528713699574761</v>
@@ -16242,7 +16134,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.440990735985243</v>
+        <v>1.429340308586059</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.611413972565239</v>
@@ -16331,7 +16223,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.452890732055241</v>
+        <v>1.436936875894558</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.308726035055551</v>
@@ -16420,7 +16312,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.454036617712475</v>
+        <v>1.441109621087091</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.32908721299481</v>
@@ -16509,7 +16401,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.448224594030084</v>
+        <v>1.434664522110361</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.186648498592155</v>
@@ -16598,7 +16490,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.439427953684283</v>
+        <v>1.432480841767328</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.633954361896905</v>
@@ -16687,7 +16579,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.434193186159967</v>
+        <v>1.424358740457173</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.658048226934604</v>
@@ -16776,7 +16668,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.435072248103131</v>
+        <v>1.430662935223644</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.643070477566086</v>
@@ -16865,7 +16757,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.441425611454865</v>
+        <v>1.439226357703878</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.655612455262197</v>
@@ -16954,7 +16846,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.445526173020119</v>
+        <v>1.438547186132037</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.645490493653913</v>
@@ -17043,7 +16935,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.451442686026397</v>
+        <v>1.446696425853486</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.584546138352658</v>
@@ -17132,7 +17024,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.435822523243387</v>
+        <v>1.442138025784417</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.610897379098605</v>
@@ -17221,7 +17113,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.431788684650916</v>
+        <v>1.442376926422954</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.546599896800846</v>
@@ -17507,7 +17399,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.572058363304653</v>
+        <v>1.563664060760431</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.884224058178646</v>
@@ -17596,7 +17488,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.561896790682779</v>
+        <v>1.5526972156538</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.877392522978409</v>
@@ -17685,7 +17577,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.564072731074839</v>
+        <v>1.554699504402047</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.967018250356337</v>
@@ -17774,7 +17666,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.574240693636944</v>
+        <v>1.561871097024592</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.938904603577629</v>
@@ -17863,7 +17755,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.628577289159761</v>
+        <v>1.606343975185026</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.719416190882646</v>
@@ -17952,7 +17844,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.635459163736552</v>
+        <v>1.615864252369321</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.795286945536454</v>
@@ -18041,7 +17933,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.642404494486409</v>
+        <v>1.621372717240198</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.19568197525737</v>
@@ -18130,7 +18022,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.652530595410182</v>
+        <v>1.632385152677931</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.993329443186805</v>
@@ -18219,7 +18111,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.632707837062215</v>
+        <v>1.619178901038341</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.644732173460212</v>
@@ -18308,7 +18200,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.632770196273361</v>
+        <v>1.618559164778871</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.889255854642601</v>
@@ -18397,7 +18289,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.635343889922196</v>
+        <v>1.62092059047202</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.821691661488727</v>
@@ -18486,7 +18378,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.626184823332809</v>
+        <v>1.614985496832801</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.650471203394423</v>
@@ -18575,7 +18467,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.624398942699326</v>
+        <v>1.612466824224908</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.810286580224305</v>
@@ -18664,7 +18556,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.628980679579526</v>
+        <v>1.610566199982096</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.697847634716305</v>
@@ -18753,7 +18645,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.624756010657731</v>
+        <v>1.606251198894636</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.804513757175621</v>
@@ -18842,7 +18734,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.637675668644982</v>
+        <v>1.617843840546815</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.549083998396444</v>
@@ -18931,7 +18823,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.647311561574902</v>
+        <v>1.630204267242647</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.724093096331563</v>
@@ -19020,7 +18912,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.648936010784176</v>
+        <v>1.625734444308408</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.697966381842217</v>
@@ -19109,7 +19001,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.652466161005734</v>
+        <v>1.62290344262849</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.629941334926954</v>
@@ -19198,7 +19090,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.650126957751788</v>
+        <v>1.619919611655755</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.703231200166027</v>
@@ -19287,7 +19179,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.664297877797851</v>
+        <v>1.617329491752152</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.50582964256203</v>
@@ -19376,7 +19268,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.666632604767724</v>
+        <v>1.622837025839709</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.699429387619703</v>
@@ -19465,7 +19357,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.676992427426607</v>
+        <v>1.632068420763416</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.649853458704527</v>
@@ -19554,7 +19446,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.708448489537631</v>
+        <v>1.654364385737358</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.789014276063323</v>
@@ -19643,7 +19535,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.732485157008041</v>
+        <v>1.681790767135555</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.100113150658813</v>
@@ -19732,7 +19624,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.729649767140581</v>
+        <v>1.682996581238248</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.566361025935019</v>
@@ -19821,7 +19713,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.744661123487071</v>
+        <v>1.695562742387163</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.310260789910521</v>
@@ -19910,7 +19802,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.751284037298527</v>
+        <v>1.70022928469711</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.631576450801796</v>
@@ -19999,7 +19891,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.745496726725903</v>
+        <v>1.698281478481118</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.403186856236705</v>
@@ -20088,7 +19980,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.737025791072868</v>
+        <v>1.689870788110741</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.501370924902987</v>
@@ -20177,7 +20069,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.732810487728451</v>
+        <v>1.679800332739511</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.463597530231512</v>
@@ -20266,7 +20158,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.720761924399112</v>
+        <v>1.666494925945185</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.637790517600929</v>
@@ -20355,7 +20247,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.722808387226716</v>
+        <v>1.671380034057627</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.388703316142476</v>
@@ -20444,7 +20336,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.701100366304709</v>
+        <v>1.66005984891816</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.39835302521701</v>
@@ -20533,7 +20425,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.677209103751274</v>
+        <v>1.634502984753821</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.237191673589864</v>
@@ -20622,7 +20514,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.661591986093138</v>
+        <v>1.630824473716454</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.047873262489896</v>
@@ -20711,7 +20603,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.647399231795727</v>
+        <v>1.614435847366249</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.468523250277373</v>
@@ -20800,7 +20692,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.637716835597098</v>
+        <v>1.601902988779896</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.37444837417205</v>
@@ -20889,7 +20781,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.649425030074372</v>
+        <v>1.608300769886766</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.503029108549871</v>
@@ -20978,7 +20870,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.651093080789025</v>
+        <v>1.602256637133349</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.001550545253996</v>
@@ -21067,7 +20959,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.648110607709638</v>
+        <v>1.593506939593033</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.376179391635703</v>
@@ -21156,7 +21048,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.647871127212019</v>
+        <v>1.59051876737238</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.382729401852439</v>
@@ -21245,7 +21137,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.645869165228631</v>
+        <v>1.582629410387701</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.271474594136956</v>
@@ -21334,7 +21226,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.645424637176006</v>
+        <v>1.578095272098647</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.20540989312004</v>
@@ -21423,7 +21315,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.6507179764629</v>
+        <v>1.577556982857484</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.459506526866861</v>
@@ -21512,7 +21404,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.655492157750264</v>
+        <v>1.581462306752085</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.422876558901969</v>
@@ -21601,7 +21493,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.660034722128923</v>
+        <v>1.583168424452972</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.479419025025915</v>
@@ -21690,7 +21582,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.655630214289511</v>
+        <v>1.579584511943037</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.341852668066897</v>
@@ -21779,7 +21671,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.685472645805202</v>
+        <v>1.600442901216445</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.050334734770606</v>
@@ -21868,7 +21760,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.711918385737104</v>
+        <v>1.622088071778275</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.616939769260529</v>
@@ -21957,7 +21849,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.724653509747732</v>
+        <v>1.635223026059192</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.443353574685325</v>
@@ -22046,7 +21938,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.727885102901056</v>
+        <v>1.638352670870053</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.323011530534025</v>
@@ -22135,7 +22027,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.734517011492887</v>
+        <v>1.638756620063498</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.003463152567337</v>
@@ -22224,7 +22116,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.723074398494404</v>
+        <v>1.627270180063</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.190127776511211</v>
@@ -22313,7 +22205,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.710047500618545</v>
+        <v>1.610109416635065</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.303969668341779</v>
@@ -22402,7 +22294,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.70010989323899</v>
+        <v>1.614302974705416</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.052399166924755</v>
@@ -22491,7 +22383,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.69882002521985</v>
+        <v>1.616852647163719</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.22389788859542</v>
@@ -22580,7 +22472,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.68743478014445</v>
+        <v>1.602666136139485</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.09287118463224</v>
@@ -22669,7 +22561,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.683502142763965</v>
+        <v>1.606963261592026</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.89565988646508</v>
@@ -22758,7 +22650,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.683306250936394</v>
+        <v>1.612729359626342</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.339191428426911</v>
@@ -22847,7 +22739,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.669461401699074</v>
+        <v>1.609151292041606</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.352348472129588</v>
@@ -23133,7 +23025,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.780523893320778</v>
+        <v>1.758830774460898</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.614515535496338</v>
@@ -23222,7 +23114,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.771449489413902</v>
+        <v>1.745788600077582</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.625954299251151</v>
@@ -23311,7 +23203,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.773652737736451</v>
+        <v>1.745012446383117</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.495254444061283</v>
@@ -23400,7 +23292,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.768142590569102</v>
+        <v>1.745227407626766</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.146942168400869</v>
@@ -23489,7 +23381,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.775210146519731</v>
+        <v>1.752470082047437</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.475178042678745</v>
@@ -23578,7 +23470,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.777523156424905</v>
+        <v>1.750336986659127</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.146874024577082</v>
@@ -23667,7 +23559,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.785632663897315</v>
+        <v>1.756537505288365</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.612905472619141</v>
@@ -23756,7 +23648,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.79192160915666</v>
+        <v>1.748982756351499</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.920851952080257</v>
@@ -23845,7 +23737,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.787486801527606</v>
+        <v>1.740191135866381</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.282103929798146</v>
@@ -23934,7 +23826,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.779323517989363</v>
+        <v>1.728378525485329</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.782265197387885</v>
@@ -24023,7 +23915,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.773966329536643</v>
+        <v>1.719033202414813</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.864882671175576</v>
@@ -24112,7 +24004,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.773750994290415</v>
+        <v>1.723597043579326</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.837526192625188</v>
@@ -24201,7 +24093,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.763276081463864</v>
+        <v>1.710740290538552</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.770574963820314</v>
@@ -24290,7 +24182,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.771765092039476</v>
+        <v>1.712548537930367</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.899354933052275</v>
@@ -24379,7 +24271,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.765462119804591</v>
+        <v>1.710159981739262</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.58041602843073</v>
@@ -24468,7 +24360,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.764362800365452</v>
+        <v>1.713932281440599</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.636440864679098</v>
@@ -24557,7 +24449,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.760064444039841</v>
+        <v>1.711367933474889</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.084286607166564</v>
@@ -24646,7 +24538,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.763007883260811</v>
+        <v>1.719406201933159</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.653585271262139</v>
@@ -24735,7 +24627,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.769467181084116</v>
+        <v>1.720168037524051</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.906928745000432</v>
@@ -24824,7 +24716,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.764924562614418</v>
+        <v>1.710104958205529</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.159911295662908</v>
@@ -24913,7 +24805,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.771052211641132</v>
+        <v>1.711854238805834</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.755092119034838</v>
@@ -25002,7 +24894,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.77171492694834</v>
+        <v>1.710577437765538</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.561605560786804</v>
@@ -25091,7 +24983,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.779302985711912</v>
+        <v>1.726693327651523</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.877090466123505</v>
@@ -25180,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.781199501219038</v>
+        <v>1.734433925961369</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.142200650434752</v>
@@ -25269,7 +25161,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.791441401326764</v>
+        <v>1.745015310541253</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.692827761102281</v>
@@ -25358,7 +25250,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.790150106380013</v>
+        <v>1.738182971319952</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.716637853272469</v>
@@ -25447,7 +25339,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.794119524423331</v>
+        <v>1.740674139191426</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.276196691866398</v>
@@ -25536,7 +25428,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.802760761648015</v>
+        <v>1.752483524237795</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.086261312994847</v>
@@ -25625,7 +25517,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.797056605371734</v>
+        <v>1.753692208616659</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.883485035612744</v>
@@ -25714,7 +25606,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.788104454643272</v>
+        <v>1.740554222675734</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.326850821279078</v>
@@ -25803,7 +25695,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.790578283341405</v>
+        <v>1.740170882549989</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.571528527175175</v>
@@ -25892,7 +25784,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.79469683919126</v>
+        <v>1.737454699606901</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.430710929538714</v>
@@ -25981,7 +25873,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.791791518870075</v>
+        <v>1.738146609203759</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.269287939274935</v>
@@ -26070,7 +25962,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.781207675867223</v>
+        <v>1.727263414876941</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.923731134985742</v>
@@ -26159,7 +26051,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.769037345648462</v>
+        <v>1.715206462157968</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.491023359870206</v>
@@ -26248,7 +26140,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.754536696473391</v>
+        <v>1.700135685792613</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.065786357845544</v>
@@ -26337,7 +26229,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.751538738025122</v>
+        <v>1.700449860442753</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.93925442030667</v>
@@ -26426,7 +26318,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.73865609719084</v>
+        <v>1.684302254289758</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.463839104423002</v>
@@ -26515,7 +26407,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.734802442148519</v>
+        <v>1.675531292019018</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.379876422815858</v>
@@ -26604,7 +26496,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.740117361110584</v>
+        <v>1.675345174873126</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.299087286219931</v>
@@ -26693,7 +26585,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.733773552621074</v>
+        <v>1.677285480702703</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.010895245619071</v>
@@ -26782,7 +26674,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.732974106007825</v>
+        <v>1.670592820548358</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.62274689936125</v>
@@ -26871,7 +26763,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.725742007124083</v>
+        <v>1.659994738300447</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.005754832973715</v>
@@ -26960,7 +26852,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.7235657059638</v>
+        <v>1.652975624240105</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.692366228997627</v>
@@ -27049,7 +26941,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.723888072438104</v>
+        <v>1.652096387849348</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.681155884164577</v>
@@ -27138,7 +27030,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.731038975111282</v>
+        <v>1.65699089422343</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.246446908461585</v>
@@ -27227,7 +27119,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.734284874474042</v>
+        <v>1.659838029728765</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.783018844164042</v>
@@ -27316,7 +27208,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.734728548320745</v>
+        <v>1.659813734135771</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.526716310234453</v>
@@ -27405,7 +27297,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.740406303488329</v>
+        <v>1.673296314656544</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.811699859317289</v>
@@ -27494,7 +27386,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.751053735271742</v>
+        <v>1.68417671099004</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.987617974819582</v>
@@ -27583,7 +27475,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.756679783544046</v>
+        <v>1.696306295104952</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.558529402834283</v>
@@ -27672,7 +27564,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.764490272575786</v>
+        <v>1.708182575372725</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.512728889804221</v>
@@ -27761,7 +27653,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.769373165483859</v>
+        <v>1.713309868696334</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.003853061128957</v>
@@ -27850,7 +27742,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.772154795245859</v>
+        <v>1.718435374407076</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.167655861903637</v>
@@ -27939,7 +27831,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.772765682510148</v>
+        <v>1.715592316456282</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.540047776906086</v>
@@ -28028,7 +27920,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.781158551578581</v>
+        <v>1.720875526678042</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.688843027022504</v>
@@ -28117,7 +28009,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.786775200120064</v>
+        <v>1.731977411463228</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.75553236886933</v>
@@ -28206,7 +28098,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.788977491631033</v>
+        <v>1.732106941117671</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.079291018706252</v>
@@ -28295,7 +28187,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.796075507188555</v>
+        <v>1.741415620039428</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.653755317757336</v>
@@ -28384,7 +28276,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.801056704872352</v>
+        <v>1.749418654580667</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.976267436373812</v>
@@ -28473,7 +28365,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.790927906863104</v>
+        <v>1.744251295098344</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.097884242245638</v>
@@ -28759,7 +28651,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.527350394076842</v>
+        <v>1.534911490172145</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.024772124273124</v>
@@ -28848,7 +28740,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.497902954345431</v>
+        <v>1.506521023527889</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.028827347030039</v>
@@ -28937,7 +28829,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.498989872571727</v>
+        <v>1.505446437753606</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.005541417785904</v>
@@ -29026,7 +28918,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.506274382678934</v>
+        <v>1.513586135023248</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.977083067805662</v>
@@ -29115,7 +29007,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.49878912287509</v>
+        <v>1.506337987762919</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.959967219002321</v>
@@ -29204,7 +29096,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.491784484481219</v>
+        <v>1.493778841993435</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.861401384255617</v>
@@ -29293,7 +29185,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.505746170397395</v>
+        <v>1.496805696378642</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.96681935834826</v>
@@ -29382,7 +29274,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.497366914201737</v>
+        <v>1.484519572258106</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.745669383550241</v>
@@ -29471,7 +29363,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.490842624153061</v>
+        <v>1.49469033950654</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.671327027973393</v>
@@ -29560,7 +29452,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.463095393952728</v>
+        <v>1.465947299740237</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.365269555773207</v>
@@ -29649,7 +29541,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.443731992097975</v>
+        <v>1.446796134042023</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.482814609373446</v>
@@ -29738,7 +29630,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.452859041271533</v>
+        <v>1.454277826687163</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.395665755636138</v>
@@ -29827,7 +29719,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.431963749407218</v>
+        <v>1.428152498174835</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.441748411445323</v>
@@ -29916,7 +29808,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.441209469318945</v>
+        <v>1.430955211383379</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.374325242951751</v>
@@ -30005,7 +29897,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.430200036833879</v>
+        <v>1.423147322824471</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.485529919718937</v>
@@ -30094,7 +29986,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.42540501107719</v>
+        <v>1.417651313847713</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.253466788771237</v>
@@ -30183,7 +30075,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.43816711490265</v>
+        <v>1.429056443771689</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.439578468108117</v>
@@ -30272,7 +30164,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.438346421357084</v>
+        <v>1.432170022521568</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.410586887204823</v>
@@ -30361,7 +30253,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.438612168868648</v>
+        <v>1.432347696485344</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.318247742392645</v>
@@ -30450,7 +30342,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.422740988008095</v>
+        <v>1.415458219179543</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.288722690614563</v>
@@ -30539,7 +30431,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.413173726542819</v>
+        <v>1.409778501611554</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.190590266009042</v>
@@ -30628,7 +30520,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.407715303058227</v>
+        <v>1.406132103453616</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.502102093032793</v>
@@ -30717,7 +30609,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.412836643650255</v>
+        <v>1.410610204177962</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.414074356178905</v>
@@ -30806,7 +30698,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.40294013690146</v>
+        <v>1.391332769161931</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.328404162045592</v>
@@ -30895,7 +30787,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.414757940756158</v>
+        <v>1.399780182403716</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.212137194286656</v>
@@ -30984,7 +30876,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.409905520391079</v>
+        <v>1.401350783499269</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.750210954788518</v>
@@ -31073,7 +30965,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.411820712897926</v>
+        <v>1.400585708993028</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.685276260086245</v>
@@ -31162,7 +31054,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.416883548455131</v>
+        <v>1.409366801973248</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.870742802409628</v>
@@ -31251,7 +31143,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.406715086840101</v>
+        <v>1.403142757242486</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.879598218559059</v>
@@ -31340,7 +31232,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.416523558877887</v>
+        <v>1.410421585123907</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.851744767570792</v>
@@ -31429,7 +31321,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.425110927666036</v>
+        <v>1.415026665192319</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.644952709405406</v>
@@ -31518,7 +31410,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.42335390465299</v>
+        <v>1.413697581711843</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.810113689296629</v>
@@ -31607,7 +31499,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.40951552136763</v>
+        <v>1.400696702005452</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.833393423970775</v>
@@ -31696,7 +31588,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.402449513188436</v>
+        <v>1.3927787346749</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.812063972602687</v>
@@ -31785,7 +31677,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.41031777801377</v>
+        <v>1.402649302772512</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.654903627895406</v>
@@ -31874,7 +31766,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.420432828075356</v>
+        <v>1.413943112622095</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.719533332409397</v>
@@ -31963,7 +31855,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.406669642664396</v>
+        <v>1.400674341570378</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.83598238948104</v>
@@ -32052,7 +31944,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.395916051746181</v>
+        <v>1.394777918532198</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.707325148210162</v>
@@ -32141,7 +32033,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.405442685914724</v>
+        <v>1.400840723300914</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.815661111007986</v>
@@ -32230,7 +32122,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.408290107663545</v>
+        <v>1.405406190720954</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.658025694127092</v>
@@ -32319,7 +32211,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.403298865026217</v>
+        <v>1.399650953700521</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.633902144190159</v>
@@ -32408,7 +32300,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.397698355333296</v>
+        <v>1.395982496490638</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.593955282040961</v>
@@ -32497,7 +32389,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.398765310575027</v>
+        <v>1.397648351965669</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.809483188347466</v>
@@ -32586,7 +32478,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.392425363444501</v>
+        <v>1.388973214749923</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.729870285763298</v>
@@ -32675,7 +32567,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.388167406236345</v>
+        <v>1.38390584499196</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.714158531907497</v>
@@ -32764,7 +32656,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.394733493662098</v>
+        <v>1.391232817512011</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.488751932351539</v>
@@ -32853,7 +32745,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.390917331984881</v>
+        <v>1.387195875997759</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.558236244677124</v>
@@ -32942,7 +32834,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.389506959224709</v>
+        <v>1.3864560117091</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.695291046441866</v>
@@ -33031,7 +32923,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.399536589418566</v>
+        <v>1.391260726488404</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.520750492273997</v>
@@ -33120,7 +33012,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.393851785338856</v>
+        <v>1.382831749050779</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.399178130159973</v>
@@ -33209,7 +33101,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.3932135080852</v>
+        <v>1.380059404261396</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.144092400101328</v>
@@ -33298,7 +33190,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.412516339642455</v>
+        <v>1.399860806143882</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.480151066969645</v>
@@ -33387,7 +33279,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.423676991176037</v>
+        <v>1.410721053341906</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.378518589334879</v>
@@ -33476,7 +33368,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.417551986227339</v>
+        <v>1.402811131155967</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.409278212387937</v>
@@ -33565,7 +33457,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.414951684286091</v>
+        <v>1.401466975395351</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.224150126009929</v>
@@ -33654,7 +33546,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.408579863305843</v>
+        <v>1.399301067710698</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.340863139975788</v>
@@ -33743,7 +33635,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.416539034179023</v>
+        <v>1.404801087357378</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.314460168641845</v>
@@ -33832,7 +33724,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.413467901972915</v>
+        <v>1.40320298038053</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.28378233194686</v>
@@ -33921,7 +33813,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.436799680458389</v>
+        <v>1.42171941381599</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.182316275680802</v>
@@ -34010,7 +33902,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.425838650119177</v>
+        <v>1.415247381679112</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.373171971741244</v>
@@ -34099,7 +33991,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.430505195249083</v>
+        <v>1.415659086368948</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.371300079190835</v>
@@ -34385,7 +34277,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.685672521969176</v>
+        <v>1.708988161750647</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.061176071652518</v>
@@ -34474,7 +34366,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.698906049340787</v>
+        <v>1.724317215656839</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.741313426385971</v>
@@ -34563,7 +34455,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.719410729371516</v>
+        <v>1.744607535808266</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.968066694187095</v>
@@ -34652,7 +34544,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.725640898899067</v>
+        <v>1.757148452680042</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.748543122908656</v>
@@ -34741,7 +34633,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.757806473055587</v>
+        <v>1.79012233051569</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.117016096539654</v>
@@ -34830,7 +34722,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.745149931468888</v>
+        <v>1.774179290026687</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.859022238359914</v>
@@ -34919,7 +34811,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.762072548799559</v>
+        <v>1.791962954429779</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.189427730229137</v>
@@ -35008,7 +34900,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.738518527180058</v>
+        <v>1.774278055694686</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.275306194081975</v>
@@ -35097,7 +34989,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.74466251501472</v>
+        <v>1.776357655754694</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.772448879684882</v>
@@ -35186,7 +35078,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.733362664625793</v>
+        <v>1.759458871649084</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.105665216709679</v>
@@ -35275,7 +35167,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.745331054407102</v>
+        <v>1.764757848277472</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.976211550480341</v>
@@ -35364,7 +35256,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.761039810251802</v>
+        <v>1.780278818704219</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.850489848632649</v>
@@ -35453,7 +35345,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.746908252900197</v>
+        <v>1.764807987239416</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.995184075912793</v>
@@ -35542,7 +35434,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.765722740052192</v>
+        <v>1.778851823574255</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.211786434318809</v>
@@ -35631,7 +35523,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.750345230982035</v>
+        <v>1.76148083706791</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.07373070257438</v>
@@ -35720,7 +35612,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.765932770761518</v>
+        <v>1.777008713291983</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.882900461403758</v>
@@ -35809,7 +35701,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.763463307575327</v>
+        <v>1.77333465707534</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.568933451353682</v>
@@ -35898,7 +35790,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.758618563919082</v>
+        <v>1.768712026259473</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.382674102392324</v>
@@ -35987,7 +35879,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.774716642957951</v>
+        <v>1.780356378292772</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.409868839932634</v>
@@ -36076,7 +35968,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.74864199164953</v>
+        <v>1.753832583657281</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.140454008132951</v>
@@ -36165,7 +36057,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.767616325420771</v>
+        <v>1.774459005954782</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.297483426401246</v>
@@ -36254,7 +36146,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.772740309189029</v>
+        <v>1.778634471965041</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.546997696524111</v>
@@ -36343,7 +36235,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.808342129083065</v>
+        <v>1.809516445041626</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.486215557304305</v>
@@ -36432,7 +36324,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.807377015634685</v>
+        <v>1.811575256130297</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.061039311876335</v>
@@ -36521,7 +36413,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.815252059911608</v>
+        <v>1.832020343798634</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.483994901579452</v>
@@ -36610,7 +36502,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.797555510957032</v>
+        <v>1.820018502999837</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.458728713918078</v>
@@ -36699,7 +36591,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.807590281652516</v>
+        <v>1.828641668110057</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.110483699665153</v>
@@ -36788,7 +36680,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.831018918297257</v>
+        <v>1.853762398908399</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.173178168747874</v>
@@ -36877,7 +36769,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.811043442070019</v>
+        <v>1.844313074375972</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.460341262678882</v>
@@ -36966,7 +36858,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.775510030403181</v>
+        <v>1.810355788475825</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.275814934682189</v>
@@ -37055,7 +36947,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.768402830061429</v>
+        <v>1.797607467271261</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.356436446541941</v>
@@ -37144,7 +37036,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.763143231996821</v>
+        <v>1.789813832534705</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.250252840254622</v>
@@ -37233,7 +37125,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.756144534015634</v>
+        <v>1.778431291629067</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.191053176452216</v>
@@ -37322,7 +37214,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.715059898117224</v>
+        <v>1.741003155141532</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.868659297649019</v>
@@ -37411,7 +37303,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.684989516326467</v>
+        <v>1.71322962502237</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.936901323561915</v>
@@ -37500,7 +37392,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.664180817018307</v>
+        <v>1.691129845917093</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.024221200597673</v>
@@ -37589,7 +37481,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.643982814132084</v>
+        <v>1.672702292416037</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.158778794531926</v>
@@ -37678,7 +37570,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.631526147022662</v>
+        <v>1.656782245457821</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.001252440351529</v>
@@ -37767,7 +37659,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.631018472887324</v>
+        <v>1.649256380106777</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.97443689828346</v>
@@ -37856,7 +37748,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.623801499222205</v>
+        <v>1.638800001707041</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.91879148263723</v>
@@ -37945,7 +37837,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.63225164290786</v>
+        <v>1.642987996205858</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.817619133668286</v>
@@ -38034,7 +37926,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.621939092067554</v>
+        <v>1.624078335889645</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.031711408467082</v>
@@ -38123,7 +38015,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.61629024571693</v>
+        <v>1.612149256688816</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.894907760812508</v>
@@ -38212,7 +38104,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.632517704230067</v>
+        <v>1.622292309337406</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.717741224677834</v>
@@ -38301,7 +38193,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.664793145830122</v>
+        <v>1.650192117995483</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.866452227988319</v>
@@ -38390,7 +38282,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.673806268063356</v>
+        <v>1.654781816241025</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.647385530615186</v>
@@ -38479,7 +38371,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.682093231309243</v>
+        <v>1.657327999166083</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.851819316436321</v>
@@ -38568,7 +38460,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.698734617772955</v>
+        <v>1.669371221955152</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.600353674525922</v>
@@ -38657,7 +38549,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.745125406429932</v>
+        <v>1.705032506884427</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.598702755700063</v>
@@ -38746,7 +38638,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.791466533636379</v>
+        <v>1.739604307709831</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.918054124824111</v>
@@ -38835,7 +38727,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.794581588063627</v>
+        <v>1.744503248337821</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.889461924170671</v>
@@ -38924,7 +38816,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.827850477427923</v>
+        <v>1.766203466879295</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.91104986706365</v>
@@ -39013,7 +38905,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.851704632480311</v>
+        <v>1.781207630261425</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.374066127970986</v>
@@ -39102,7 +38994,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.836532090136644</v>
+        <v>1.774560106201936</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.996170444470989</v>
@@ -39191,7 +39083,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.818911269227254</v>
+        <v>1.759100047081975</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.078915216570612</v>
@@ -39280,7 +39172,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.800492699851745</v>
+        <v>1.746835076360681</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.163045529649697</v>
@@ -39369,7 +39261,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.807103131131431</v>
+        <v>1.760822513073232</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.268468222962968</v>
@@ -39458,7 +39350,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.800909511993535</v>
+        <v>1.760565644642183</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.18340677863713</v>
@@ -39547,7 +39439,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.797429084422235</v>
+        <v>1.760955548896343</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.49395396971645</v>
@@ -39636,7 +39528,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.80388481058032</v>
+        <v>1.769466950944094</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.235558499226387</v>
@@ -39725,7 +39617,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.771169118221438</v>
+        <v>1.748783561344373</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.245177895212989</v>
